--- a/resultados_url.xlsx
+++ b/resultados_url.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="147">
   <si>
     <t>URL</t>
   </si>
@@ -35,13 +35,433 @@
   </si>
   <si>
     <t>https://amarillas.emol.com/empresa/2001904/bcg-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001909/bcm-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000582/abogados-lex-juicios</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000929/abogados-maipu</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001910/bck-abogados-y-contadores-auditores</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001908/bck-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/524943/sarmiento-nunez-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000884/abogados-tributarios-san-sebastian</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001421/receptora-esperguel</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000050/urrutia-letelier-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001907/bcg-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31549/centro-de-mediacion-bicentenario</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001127/rodriguez-abogado-defensor-penal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001906/bcg-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000053/pleito-laboral-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000560/hans-meyer-beltran</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000806/campos-y-cia-abogados-sebastian-campos-miranda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001520/luis-urrutia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001912/bck-abogados-y-contadores-auditores</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/32396/abogados-r-r</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002230/bg-bustos-gomez-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002135/estudio-juridico-segovia-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/30986/clark-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/24570/carlos-s-arce-cornejo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31878/estudio-juridico-asesorias-accion-legal-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31798/estudio-juridico-santis-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/28479/abogado-laboral-rodrigo-munoz-sandrock</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/29074/estudio-juridico-del-trabajador</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/29229/parot-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/32394/estudio-juridico-defiende-tu-familia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31953/sarmiento-nunez-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/24893/abogada-johana-godoy-escobar</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/32171/geisse-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002317/latorre-cia-abogados-tributarios</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/28320/abogado-rodrigo-sepulveda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/120058/hagedorn-y-belmar-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2231/tapia-elorza-y-compania-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/26152/estudio-juridico-valderrama-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001290/abogados-diaz-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31563/abogado-orietta-rodriguez---identidad-legal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31336/demanda-colectiva-afp</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/32242/abogado-tributario-let</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000825/abogados-puconcl</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002147/abogados-barraza-rojas-cia-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000603/abogado-nicolas-arismendi</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/341864/peralta-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300524430/hay-solucion</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002430/masabogadoscl</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300475470/abogados-valdivia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001658/optima-defensa</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300316809/abogado-sergio-diaz</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300523637/alvarez-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300518502/becker-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001174/estudio-juridico-v-v</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300338502/julio-rojas-benavente-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300519385/abogados-de-familia-rancagua</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300234989/herrera-sanchez-marcelo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300070713/guerrero-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300097398/ansaldi-dominguez-carmen</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300123120/estudio-dellafiori</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300281671/bravo-y-cia-rodrigo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300157861/tuane-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300316951/sota-abogada</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300524282/lzm-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300227810/uribe-etxverria-y-cia-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300318435/organismo-tecnico-de-capacitacion-y-abogado-patricio-cornejo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300518859/antonio-arriagada-jaramillo-abogado</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300448134/abogados-asociados-cia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300352552/abogados-guido-sepulveda-y-cia-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300450330/juan-pablo-iturriaga-cavieres-abogado</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300123107/bunster-henriquez-katiushka</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300258241/ulloa-monge-schubert-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300123080/advis-mondaca-ricardo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300333029/estudio-juridico-quasar</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300252936/retamal-grimberg-maria-loreto</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300151084/rubio-ruiz-de-gamboa-carlos</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300071162/lewin-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300353700/estudio-juridico-acevedo-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300232806/daguerressar-caldera-carlos-andres</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300253559/caceres-squella-gabriel-eduardo-o</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300155642/abogados-asesores-y-consultores</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300066494/abuauad-cia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300097512/bravo-tesseo-jorge</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300209205/bufete-de-abogados-ohiggins</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300520151/area-judicial</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300082875/vicente-estudio-juridico</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300283947/soza-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300201401/rabuco-canas-ricardo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300260899/estudio-juridico-veronica-bustamante</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300299325/abogados-estudio-juridico-robinson-quelin</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300313652/daslav-omerovic-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300123175/raposo-rojas-alberto</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300240852/steuer-stehn-helmuth</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300448224/l-h-abogados-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300076316/rogel-y-asociados-anibal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300443564/orlando-poblete-y-compania-limitada</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300307800/contreras-fuentes-carlos</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300146242/jerez-davila-juan-jose</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300157343/cortes-tapia-patricia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300450469/sebastian-tello-mura</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300333134/consultora-legal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300097618/de-iruarrizaga-arnaiz-y-cia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300281642/estudio-juridico-naranjo-y-asociados-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300346537/abogada-elizabeth-kobus</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300081488/galvez-llanos-jorge-eduardo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300443658/estudio-juridico-ruben-diaz-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300000147/johansson-langlois</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300105566/abogado-daniel-guevara-cortes</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300297202/mcys-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300098600/rencoret-balbontin-andres</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300524586/estudio-juridico-defensa-go</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300268682/barra-y-cia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300178907/vergara-labarca-cia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300103833/transunion-soluciones-de-informacion-chile-s-a</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300237505/estudio-munoz-pirtzl-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300203171/iturra-astudillo-fernando-fidel</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300202917/gestab</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300088506/juicios-laborales-mario-garay-martinez</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300340788/abogadas-laboralistas</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300097806/holzapfel-gross-gaston</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300268641/jean-pierre-matus</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300521633/estudio-juridico-hernandez-villegas</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300294066/asesoria-legal-comercial-y-n-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300314972/asesorias-legales</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300203154/bordachar-urrutia-rodrigo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300253539/dyp-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300227583/jimenez-trejo-patricio</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300344309/abogados-del-maule</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300346548/pomar-carrasco-y-compania-limitada</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300254198/passano-alvares-y-cia-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300120059/perez-correa-y-sanguino-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300240043/albornoz-pollmann-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300002003/yuseff-y-compania</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300266621/ruiz-tagle-metzner-sabugo-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300352550/abogados-hugo-ciro-cabrera-torres</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300339798/aseo-industrial-alondra</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300357861/miss-legal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300318519/abogados-debia-y-figueroa</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300261642/perez-cotapos-contreras-juan-jose</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300316449/abogado-patricio-martinez-fuentes</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300250556/jara-lara-rodrigo-arturo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,21 +532,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -200,7 +615,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,7 +649,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,48 +824,766 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -463,6 +1594,150 @@
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
